--- a/biology/Botanique/Mouriri_guianensis/Mouriri_guianensis.xlsx
+++ b/biology/Botanique/Mouriri_guianensis/Mouriri_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mouriri guianensis est une espèce néotropicale d'arbre, appartenant à la famille des Melastomataceae (anciennement des Memecylaceae). Il s'agit de l'espèce type du genre Mouriri Aubl..
-En Guyane, il est connu sous les noms de Wilde kers, Spikrie hoedoe, Pomike (Carib, Suriname), Bois flèche, Bois de mêche (Créole), Topi (Boni)[2].
-On l'appelle aussi Socoró[3] (nom partagé avec M. acutiflora[4]), Cruili, Muriti, Murta de parida au Brésil, Mamuriballi dans le Démérara[5], Cascarito, Cometure au Venezuela[6].
+En Guyane, il est connu sous les noms de Wilde kers, Spikrie hoedoe, Pomike (Carib, Suriname), Bois flèche, Bois de mêche (Créole), Topi (Boni).
+On l'appelle aussi Socoró (nom partagé avec M. acutiflora), Cruili, Muriti, Murta de parida au Brésil, Mamuriballi dans le Démérara, Cascarito, Cometure au Venezuela.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mouriri guianensis est un arbre ou une arbuste à feuilles persistantes, glabre à l'exception de l'inflorescence, haut de 10-20(30) m pour 50(60) cm de diamètre, à feuillage assez dense et bois très dur.
 Les jeunes rameaux sont brun rougeâtre et lisses, cannelés ou dotés de 4 ailes étroites.
@@ -542,7 +556,7 @@
 Il est couronné par l'hypanthium haut de 6,5-15 mm, épais de 6,2-17 mm et souvent agrémenté de quelques lobes restant du calice.
 La chair est de couleur orange pâle ou jaune foncé.
 Il contient 1-3 graines brunes, lisses, longues de 6,7-9,4 mm pour 5,3-8 mm de large, et 5,1-7,4 mm d'épaisseur, de forme irrégulière et largement ellipsoïdes.
-Le hile latéral-basal est large de 2,5-4,5 mm pour 1,5-3 mm de haut[2],[6],[5],[7].
+Le hile latéral-basal est large de 2,5-4,5 mm pour 1,5-3 mm de haut.
 </t>
         </is>
       </c>
@@ -571,9 +585,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mouriri guianensis est répandu de Trinidad au nord et à l'est du Brésil (Pará, Amazonie) en passant par le Venezuela, le Guyana, le Suriname, la Guyane, et le Pérou[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mouriri guianensis est répandu de Trinidad au nord et à l'est du Brésil (Pará, Amazonie) en passant par le Venezuela, le Guyana, le Suriname, la Guyane, et le Pérou.
 </t>
         </is>
       </c>
@@ -602,14 +618,16 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les Guyanes et au Venezuela, on rencontre Mouriri guianensis dans les forêts humides secondaires et anciennes, les savanes, les lieux ouverts et les bords de mer, généralement près de l'eau, souvent dans des endroits bas sujets aux inondations. Il est signalé sur les sols sablonneux et argileux, depuis le niveau de la mer jusqu'à 200(300) m d'altitude[6],[2].
-Au Brésil, Mouriri guianensis est pollinisé à l'aube par l'abeille Megalopta amoena (Halictidae), et par Melipona subnitida, Augochlopsis sp. et Trigona sp.[8].
-La faune aquatique consomme les fruits de Mouriri guianensis. La résistance de ses graines à la dessiccation, leur germination, et la morphologie des plantules ont été documentées[9],[3].
-Mouriri guianensis présente des variations morphologiques selon la région d'origine (taille des ovaires, nombre de loges et d'ovules, forme et texture du limbe et longueur du pétiole), ce qui aurait pour origine des isolements génétiques prolongés[10].
-Dans une forêt inondée du Pantanal, Mouriri guianensis présente une répartition spatiale de ses populations sur un schéma groupé. On a estimé qu'une taille minimale de parcelle de 40 m x 40 m est nécessaire pour étudier les processus écologiques liés à cette espèce[11].
-Mouriri guianensis résiste relativement bien aux inondations prolongées dans le Parc national de Jaú (Brésil)[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les Guyanes et au Venezuela, on rencontre Mouriri guianensis dans les forêts humides secondaires et anciennes, les savanes, les lieux ouverts et les bords de mer, généralement près de l'eau, souvent dans des endroits bas sujets aux inondations. Il est signalé sur les sols sablonneux et argileux, depuis le niveau de la mer jusqu'à 200(300) m d'altitude,.
+Au Brésil, Mouriri guianensis est pollinisé à l'aube par l'abeille Megalopta amoena (Halictidae), et par Melipona subnitida, Augochlopsis sp. et Trigona sp..
+La faune aquatique consomme les fruits de Mouriri guianensis. La résistance de ses graines à la dessiccation, leur germination, et la morphologie des plantules ont été documentées,.
+Mouriri guianensis présente des variations morphologiques selon la région d'origine (taille des ovaires, nombre de loges et d'ovules, forme et texture du limbe et longueur du pétiole), ce qui aurait pour origine des isolements génétiques prolongés.
+Dans une forêt inondée du Pantanal, Mouriri guianensis présente une répartition spatiale de ses populations sur un schéma groupé. On a estimé qu'une taille minimale de parcelle de 40 m x 40 m est nécessaire pour étudier les processus écologiques liés à cette espèce.
+Mouriri guianensis résiste relativement bien aux inondations prolongées dans le Parc national de Jaú (Brésil).
 </t>
         </is>
       </c>
@@ -638,10 +656,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit de Mouriri guianensis est comestible, sucré, et peut être consommé cru[5],[2].
-Mouriri guianensis présente un potentiel d'utilisation dans la restauration écologique des forêts ripicoles[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit de Mouriri guianensis est comestible, sucré, et peut être consommé cru,.
+Mouriri guianensis présente un potentiel d'utilisation dans la restauration écologique des forêts ripicoles.
 </t>
         </is>
       </c>
@@ -670,9 +690,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[13] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « MOURIRI Guianenſis. (Tabula 180.)
 Arbor trunco quadraginta-pedali, in ſummitate ramoſo ; ramis latè, &amp; undiquè ſpartis ; ramulis nodolis. Folia ad ſingulos nodos bina, oppoſita, ovata, acuminata, glabra, rigida, integerrima, brevi petiolata. Flores corymboſi ; corymbis oppoſitis, axillaribus. Bractea minima ad baſim pedunculi communis, &amp; pedunculorum partialium, binæ calici ſubpolitæ.
 Florebat Novembri, fructum ferebat Januario.
